--- a/0 - Geral - Novembro.xlsx
+++ b/0 - Geral - Novembro.xlsx
@@ -13,10 +13,6 @@
     <sheet name="8 - Homens" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="9 - Professores e Oficiais" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="5 - Catecúmenos A" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Cópia de 7 - Mulheres" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Cópia de 8 - Homens" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Cópia de 6 - Doutrinas 2" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Cópia de 5 - Catecúmenos A" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -202,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -543,17 +539,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="168" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="168" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,7 +824,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -866,6 +861,7 @@
       </c>
       <c r="F1" s="121" t="n"/>
       <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="46" t="inlineStr">
@@ -887,6 +883,7 @@
       </c>
       <c r="F2" s="121" t="n"/>
       <c r="G2" s="110" t="n"/>
+      <c r="H2" s="110" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="65" t="n"/>
@@ -896,6 +893,7 @@
       <c r="E3" s="65" t="n"/>
       <c r="F3" s="65" t="n"/>
       <c r="G3" s="65" t="n"/>
+      <c r="H3" s="65" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="65" t="n"/>
@@ -905,6 +903,7 @@
       <c r="E4" s="65" t="n"/>
       <c r="F4" s="65" t="n"/>
       <c r="G4" s="65" t="n"/>
+      <c r="H4" s="65" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="65" t="n"/>
@@ -918,19 +917,19 @@
           <t>Dat. Nasc.</t>
         </is>
       </c>
-      <c r="D5" s="123" t="n">
+      <c r="D5" s="122" t="n">
         <v>45963</v>
       </c>
-      <c r="E5" s="124" t="n">
+      <c r="E5" s="123" t="n">
         <v>45970</v>
       </c>
-      <c r="F5" s="124" t="n">
+      <c r="F5" s="123" t="n">
         <v>45977</v>
       </c>
-      <c r="G5" s="124" t="n">
+      <c r="G5" s="123" t="n">
         <v>45984</v>
       </c>
-      <c r="H5" s="124" t="n">
+      <c r="H5" s="123" t="n">
         <v>45991</v>
       </c>
     </row>
@@ -1404,7 +1403,7 @@
     </row>
     <row r="36">
       <c r="A36" s="65" t="n"/>
-      <c r="B36" s="126" t="n">
+      <c r="B36" s="124" t="n">
         <v>45963</v>
       </c>
       <c r="C36" s="65" t="n"/>
@@ -1416,7 +1415,7 @@
     </row>
     <row r="37">
       <c r="A37" s="65" t="n"/>
-      <c r="B37" s="126" t="n">
+      <c r="B37" s="124" t="n">
         <v>45970</v>
       </c>
       <c r="C37" s="65" t="n"/>
@@ -1428,7 +1427,7 @@
     </row>
     <row r="38">
       <c r="A38" s="65" t="n"/>
-      <c r="B38" s="126" t="n">
+      <c r="B38" s="124" t="n">
         <v>45977</v>
       </c>
       <c r="C38" s="65" t="n"/>
@@ -1440,7 +1439,7 @@
     </row>
     <row r="39">
       <c r="A39" s="65" t="n"/>
-      <c r="B39" s="126" t="n">
+      <c r="B39" s="124" t="n">
         <v>45984</v>
       </c>
       <c r="C39" s="65" t="n"/>
@@ -1478,7 +1477,7 @@
     </row>
     <row r="42">
       <c r="A42" s="65" t="n"/>
-      <c r="B42" s="126" t="n">
+      <c r="B42" s="124" t="n">
         <v>45963</v>
       </c>
       <c r="C42" s="65" t="n"/>
@@ -1490,7 +1489,7 @@
     </row>
     <row r="43">
       <c r="A43" s="29" t="n"/>
-      <c r="B43" s="126" t="n">
+      <c r="B43" s="124" t="n">
         <v>45970</v>
       </c>
       <c r="C43" s="65" t="n"/>
@@ -1502,7 +1501,7 @@
     </row>
     <row r="44">
       <c r="A44" s="29" t="n"/>
-      <c r="B44" s="126" t="n">
+      <c r="B44" s="124" t="n">
         <v>45977</v>
       </c>
       <c r="C44" s="65" t="n"/>
@@ -1514,7 +1513,7 @@
     </row>
     <row r="45">
       <c r="A45" s="65" t="n"/>
-      <c r="B45" s="126" t="n">
+      <c r="B45" s="124" t="n">
         <v>45984</v>
       </c>
       <c r="C45" s="65" t="n"/>
@@ -1537,13 +1536,13 @@
       <c r="H46" s="65" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="0" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="B48" s="0" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="B49" s="0" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="B50" s="30" t="inlineStr"/>
@@ -1568,7 +1567,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1605,6 +1604,7 @@
       </c>
       <c r="F1" s="121" t="n"/>
       <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="46" t="inlineStr">
@@ -1626,6 +1626,7 @@
       </c>
       <c r="F2" s="121" t="n"/>
       <c r="G2" s="110" t="n"/>
+      <c r="H2" s="110" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="65" t="n"/>
@@ -1635,6 +1636,7 @@
       <c r="E3" s="65" t="n"/>
       <c r="F3" s="65" t="n"/>
       <c r="G3" s="65" t="n"/>
+      <c r="H3" s="65" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="65" t="n"/>
@@ -1644,6 +1646,7 @@
       <c r="E4" s="65" t="n"/>
       <c r="F4" s="65" t="n"/>
       <c r="G4" s="65" t="n"/>
+      <c r="H4" s="65" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="65" t="n"/>
@@ -1657,19 +1660,19 @@
           <t>Data de Nasc.</t>
         </is>
       </c>
-      <c r="D5" s="123" t="n">
+      <c r="D5" s="122" t="n">
         <v>45963</v>
       </c>
-      <c r="E5" s="124" t="n">
+      <c r="E5" s="123" t="n">
         <v>45970</v>
       </c>
-      <c r="F5" s="124" t="n">
+      <c r="F5" s="123" t="n">
         <v>45977</v>
       </c>
-      <c r="G5" s="124" t="n">
+      <c r="G5" s="123" t="n">
         <v>45984</v>
       </c>
-      <c r="H5" s="124" t="n">
+      <c r="H5" s="123" t="n">
         <v>45991</v>
       </c>
     </row>
@@ -1938,15 +1941,15 @@
       <c r="B30" s="65" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="B31" s="0" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="110" t="n"/>
-      <c r="B32" s="0" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="65" t="n"/>
-      <c r="B33" s="0" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="65" t="n"/>
@@ -1964,7 +1967,7 @@
     </row>
     <row r="35">
       <c r="A35" s="65" t="n"/>
-      <c r="B35" s="126" t="n">
+      <c r="B35" s="124" t="n">
         <v>45963</v>
       </c>
       <c r="C35" s="65" t="n"/>
@@ -1976,7 +1979,7 @@
     </row>
     <row r="36">
       <c r="A36" s="65" t="n"/>
-      <c r="B36" s="126" t="n">
+      <c r="B36" s="124" t="n">
         <v>45970</v>
       </c>
       <c r="C36" s="65" t="n"/>
@@ -1988,7 +1991,7 @@
     </row>
     <row r="37">
       <c r="A37" s="65" t="n"/>
-      <c r="B37" s="126" t="n">
+      <c r="B37" s="124" t="n">
         <v>45977</v>
       </c>
       <c r="C37" s="29" t="n"/>
@@ -2000,7 +2003,7 @@
     </row>
     <row r="38">
       <c r="A38" s="29" t="n"/>
-      <c r="B38" s="126" t="n">
+      <c r="B38" s="124" t="n">
         <v>45984</v>
       </c>
       <c r="C38" s="29" t="n"/>
@@ -2038,7 +2041,7 @@
     </row>
     <row r="41">
       <c r="A41" s="65" t="n"/>
-      <c r="B41" s="126" t="n">
+      <c r="B41" s="124" t="n">
         <v>45963</v>
       </c>
       <c r="C41" s="65" t="n"/>
@@ -2049,3765 +2052,23 @@
       <c r="H41" s="65" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="126" t="n">
+      <c r="B42" s="124" t="n">
         <v>45970</v>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="126" t="n">
+      <c r="B43" s="124" t="n">
         <v>45977</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" s="126" t="n">
+      <c r="B44" s="124" t="n">
         <v>45984</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="125" t="n">
         <v>45991</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col width="8" customWidth="1" style="120" min="1" max="1"/>
-    <col width="34.5" customWidth="1" style="120" min="2" max="2"/>
-    <col width="7.88" customWidth="1" style="120" min="4" max="5"/>
-    <col width="8.25" customWidth="1" style="120" min="6" max="6"/>
-    <col width="8.380000000000001" customWidth="1" style="120" min="7" max="7"/>
-    <col width="8.5" customWidth="1" style="120" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="46" t="inlineStr">
-        <is>
-          <t>Classe</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>MULHERES</t>
-        </is>
-      </c>
-      <c r="C1" s="65" t="n"/>
-      <c r="D1" s="65" t="n"/>
-      <c r="E1" s="46" t="inlineStr">
-        <is>
-          <t>Ano: 2025</t>
-        </is>
-      </c>
-      <c r="F1" s="121" t="n"/>
-      <c r="G1" s="6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="46" t="inlineStr">
-        <is>
-          <t>Prof(a)</t>
-        </is>
-      </c>
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>Rev. Welerson</t>
-        </is>
-      </c>
-      <c r="C2" s="65" t="n"/>
-      <c r="D2" s="65" t="n"/>
-      <c r="E2" s="46" t="inlineStr">
-        <is>
-          <t>Mês: Abril</t>
-        </is>
-      </c>
-      <c r="F2" s="121" t="n"/>
-      <c r="G2" s="110" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="65" t="n"/>
-      <c r="B3" s="65" t="n"/>
-      <c r="C3" s="65" t="n"/>
-      <c r="D3" s="65" t="n"/>
-      <c r="E3" s="65" t="n"/>
-      <c r="F3" s="65" t="n"/>
-      <c r="G3" s="65" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="65" t="n"/>
-      <c r="B4" s="65" t="n"/>
-      <c r="C4" s="65" t="n"/>
-      <c r="D4" s="65" t="n"/>
-      <c r="E4" s="65" t="n"/>
-      <c r="F4" s="65" t="n"/>
-      <c r="G4" s="65" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="65" t="n"/>
-      <c r="B5" s="9" t="inlineStr">
-        <is>
-          <t>Nome dos alunos</t>
-        </is>
-      </c>
-      <c r="C5" s="9" t="inlineStr">
-        <is>
-          <t>Data de Nasc.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="n">
-        <v>45753</v>
-      </c>
-      <c r="E5" s="12" t="n">
-        <v>45760</v>
-      </c>
-      <c r="F5" s="12" t="n">
-        <v>45767</v>
-      </c>
-      <c r="G5" s="12" t="n">
-        <v>45774</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="99" t="inlineStr">
-        <is>
-          <t>Andrea Cristina dos S. Mena Ribeiro</t>
-        </is>
-      </c>
-      <c r="C6" s="33" t="n">
-        <v>27437</v>
-      </c>
-      <c r="D6" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E6" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F6" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G6" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="100" t="inlineStr">
-        <is>
-          <t>Cleide Sabbatini</t>
-        </is>
-      </c>
-      <c r="C7" s="16" t="inlineStr">
-        <is>
-          <t>21/04/</t>
-        </is>
-      </c>
-      <c r="D7" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E7" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G7" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="87" t="inlineStr">
-        <is>
-          <t>Cristiane Carvalho Paulino</t>
-        </is>
-      </c>
-      <c r="C8" s="89" t="n">
-        <v>29571</v>
-      </c>
-      <c r="D8" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E8" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F8" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G8" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" s="100" t="inlineStr">
-        <is>
-          <t>Camila Duarte Brosques M.</t>
-        </is>
-      </c>
-      <c r="C9" s="92" t="n">
-        <v>30281</v>
-      </c>
-      <c r="D9" s="16" t="n"/>
-      <c r="E9" s="17" t="n"/>
-      <c r="F9" s="17" t="n"/>
-      <c r="G9" s="17" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" s="88" t="inlineStr">
-        <is>
-          <t>Damaris Soto</t>
-        </is>
-      </c>
-      <c r="C10" s="63" t="inlineStr">
-        <is>
-          <t>14/05/1992</t>
-        </is>
-      </c>
-      <c r="D10" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E10" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F10" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G10" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" s="88" t="inlineStr">
-        <is>
-          <t>Edite de Almeida Silva</t>
-        </is>
-      </c>
-      <c r="C11" s="63" t="inlineStr">
-        <is>
-          <t>14/04/</t>
-        </is>
-      </c>
-      <c r="D11" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E11" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F11" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G11" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="B12" s="88" t="inlineStr">
-        <is>
-          <t>Eva Cristiane Bessa Souza Duran</t>
-        </is>
-      </c>
-      <c r="C12" s="56" t="n">
-        <v>27093</v>
-      </c>
-      <c r="D12" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E12" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F12" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G12" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="20" t="n">
-        <v>7</v>
-      </c>
-      <c r="B13" s="88" t="inlineStr">
-        <is>
-          <t>Fabíola Neres Muniz Oliveira</t>
-        </is>
-      </c>
-      <c r="C13" s="89" t="n">
-        <v>29796</v>
-      </c>
-      <c r="D13" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E13" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F13" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G13" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="20" t="n">
-        <v>8</v>
-      </c>
-      <c r="B14" s="88" t="inlineStr">
-        <is>
-          <t>Fernanda Paiva da Cunha Rosa</t>
-        </is>
-      </c>
-      <c r="C14" s="89" t="n">
-        <v>32896</v>
-      </c>
-      <c r="D14" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E14" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F14" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G14" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="20" t="n">
-        <v>9</v>
-      </c>
-      <c r="B15" s="100" t="inlineStr">
-        <is>
-          <t>Ingrid Fernanda de Oliveira Almeida</t>
-        </is>
-      </c>
-      <c r="C15" s="89" t="n">
-        <v>37412</v>
-      </c>
-      <c r="D15" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F15" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G15" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="20" t="n">
-        <v>10</v>
-      </c>
-      <c r="B16" s="100" t="inlineStr">
-        <is>
-          <t>Isabel Cristina Ferreira Bramont de Azevedo</t>
-        </is>
-      </c>
-      <c r="C16" s="92" t="n">
-        <v>21056</v>
-      </c>
-      <c r="D16" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E16" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F16" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G16" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="20" t="n">
-        <v>11</v>
-      </c>
-      <c r="B17" s="88" t="inlineStr">
-        <is>
-          <t>Ivonete Duarte Brosque</t>
-        </is>
-      </c>
-      <c r="C17" s="89" t="n">
-        <v>21134</v>
-      </c>
-      <c r="D17" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E17" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F17" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G17" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="20" t="n">
-        <v>12</v>
-      </c>
-      <c r="B18" s="100" t="inlineStr">
-        <is>
-          <t>Juliane Cristina dos Santos Oliveira</t>
-        </is>
-      </c>
-      <c r="C18" s="89" t="n">
-        <v>32773</v>
-      </c>
-      <c r="D18" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E18" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F18" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G18" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="20" t="n">
-        <v>13</v>
-      </c>
-      <c r="B19" s="88" t="inlineStr">
-        <is>
-          <t>Ketlin Cristina Apolinario de Campos</t>
-        </is>
-      </c>
-      <c r="C19" s="62" t="inlineStr">
-        <is>
-          <t>20/02/1994</t>
-        </is>
-      </c>
-      <c r="D19" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E19" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F19" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G19" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="20" t="n">
-        <v>14</v>
-      </c>
-      <c r="B20" s="88" t="inlineStr">
-        <is>
-          <t>Lais Leite</t>
-        </is>
-      </c>
-      <c r="C20" s="62" t="inlineStr">
-        <is>
-          <t>13/09/1952</t>
-        </is>
-      </c>
-      <c r="D20" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E20" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F20" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G20" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="20" t="n">
-        <v>15</v>
-      </c>
-      <c r="B21" s="88" t="inlineStr">
-        <is>
-          <t>Lanete Dias Garrido Montes</t>
-        </is>
-      </c>
-      <c r="C21" s="89" t="n">
-        <v>24071</v>
-      </c>
-      <c r="D21" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E21" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F21" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G21" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="20" t="n">
-        <v>16</v>
-      </c>
-      <c r="B22" s="43" t="inlineStr">
-        <is>
-          <t>Larissa Renata Furquim Vieira</t>
-        </is>
-      </c>
-      <c r="C22" s="63" t="inlineStr">
-        <is>
-          <t>12/09/1991</t>
-        </is>
-      </c>
-      <c r="D22" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E22" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F22" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G22" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="20" t="n">
-        <v>17</v>
-      </c>
-      <c r="B23" s="81" t="inlineStr">
-        <is>
-          <t>Layane B. F. da Silva Pereira</t>
-        </is>
-      </c>
-      <c r="C23" s="56" t="n">
-        <v>36159</v>
-      </c>
-      <c r="D23" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E23" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F23" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G23" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="20" t="n">
-        <v>18</v>
-      </c>
-      <c r="B24" s="81" t="inlineStr">
-        <is>
-          <t>Maria Aide Amaral Messias Furquim</t>
-        </is>
-      </c>
-      <c r="C24" s="89" t="n">
-        <v>16147</v>
-      </c>
-      <c r="D24" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E24" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F24" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G24" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B25" s="88" t="inlineStr">
-        <is>
-          <t>Maria Silvia dos Santos</t>
-        </is>
-      </c>
-      <c r="C25" s="89" t="n">
-        <v>13769</v>
-      </c>
-      <c r="D25" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E25" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F25" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G25" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="20" t="n">
-        <v>20</v>
-      </c>
-      <c r="B26" s="101" t="inlineStr">
-        <is>
-          <t>Maria Verçosa de Araujo</t>
-        </is>
-      </c>
-      <c r="C26" s="102" t="n">
-        <v>20921</v>
-      </c>
-      <c r="D26" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E26" s="103" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F26" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G26" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="20" t="n">
-        <v>21</v>
-      </c>
-      <c r="B27" s="87" t="inlineStr">
-        <is>
-          <t>Marilene Bertoni Moreira</t>
-        </is>
-      </c>
-      <c r="C27" s="104" t="n">
-        <v>19246</v>
-      </c>
-      <c r="D27" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E27" s="103" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F27" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G27" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="20" t="n">
-        <v>22</v>
-      </c>
-      <c r="B28" s="88" t="inlineStr">
-        <is>
-          <t>Marina Aparecida Kurnich de Melo</t>
-        </is>
-      </c>
-      <c r="C28" s="62" t="inlineStr">
-        <is>
-          <t>23/04/1960</t>
-        </is>
-      </c>
-      <c r="D28" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E28" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F28" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G28" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="20" t="n">
-        <v>23</v>
-      </c>
-      <c r="B29" s="100" t="inlineStr">
-        <is>
-          <t>Maristela Roberto</t>
-        </is>
-      </c>
-      <c r="C29" s="62" t="inlineStr">
-        <is>
-          <t>18/06/1969</t>
-        </is>
-      </c>
-      <c r="D29" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E29" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F29" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G29" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="20" t="n">
-        <v>24</v>
-      </c>
-      <c r="B30" s="87" t="inlineStr">
-        <is>
-          <t>Nathaly Almeida Pacheco</t>
-        </is>
-      </c>
-      <c r="C30" s="62" t="inlineStr">
-        <is>
-          <t>19/03/1995</t>
-        </is>
-      </c>
-      <c r="D30" s="16" t="inlineStr">
-        <is>
-          <t>BERÇ</t>
-        </is>
-      </c>
-      <c r="E30" s="16" t="inlineStr">
-        <is>
-          <t>BERÇ</t>
-        </is>
-      </c>
-      <c r="F30" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G30" s="16" t="inlineStr">
-        <is>
-          <t>BERÇ</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="20" t="n">
-        <v>25</v>
-      </c>
-      <c r="B31" s="88" t="inlineStr">
-        <is>
-          <t>Nívea Engelender Ramos Evangelista</t>
-        </is>
-      </c>
-      <c r="C31" s="89" t="n">
-        <v>27206</v>
-      </c>
-      <c r="D31" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E31" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F31" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G31" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="20" t="n">
-        <v>26</v>
-      </c>
-      <c r="B32" s="105" t="inlineStr">
-        <is>
-          <t>Odete Romero Dias</t>
-        </is>
-      </c>
-      <c r="C32" s="89" t="n">
-        <v>15184</v>
-      </c>
-      <c r="D32" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E32" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F32" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G32" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="20" t="n">
-        <v>27</v>
-      </c>
-      <c r="B33" s="99" t="inlineStr">
-        <is>
-          <t>Rebecca Rocha Baldez Teodoro</t>
-        </is>
-      </c>
-      <c r="C33" s="34" t="n">
-        <v>34478</v>
-      </c>
-      <c r="D33" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E33" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F33" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G33" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="20" t="n">
-        <v>28</v>
-      </c>
-      <c r="B34" s="88" t="inlineStr">
-        <is>
-          <t>Rosana Souza de Oliveira Barbosa</t>
-        </is>
-      </c>
-      <c r="C34" s="89" t="n">
-        <v>23929</v>
-      </c>
-      <c r="D34" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E34" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F34" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G34" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="20" t="n">
-        <v>29</v>
-      </c>
-      <c r="B35" s="43" t="inlineStr">
-        <is>
-          <t>Simone Verçosa de Araujo Muniz Moraes</t>
-        </is>
-      </c>
-      <c r="C35" s="68" t="n">
-        <v>27960</v>
-      </c>
-      <c r="D35" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E35" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F35" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G35" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="20" t="n">
-        <v>30</v>
-      </c>
-      <c r="B36" s="106" t="inlineStr">
-        <is>
-          <t>Thais Rodrigues Bernardino da Costa</t>
-        </is>
-      </c>
-      <c r="C36" s="33" t="n">
-        <v>32813</v>
-      </c>
-      <c r="D36" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E36" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F36" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G36" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="20" t="n">
-        <v>31</v>
-      </c>
-      <c r="B37" s="88" t="inlineStr">
-        <is>
-          <t>Vilma Cruz</t>
-        </is>
-      </c>
-      <c r="C37" s="89" t="n">
-        <v>20633</v>
-      </c>
-      <c r="D37" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E37" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F37" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G37" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="20" t="n">
-        <v>32</v>
-      </c>
-      <c r="B38" s="88" t="inlineStr">
-        <is>
-          <t>Viviane Patrão de Almeida</t>
-        </is>
-      </c>
-      <c r="C38" s="62" t="inlineStr">
-        <is>
-          <t>22/09/1980</t>
-        </is>
-      </c>
-      <c r="D38" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E38" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F38" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G38" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="20" t="n">
-        <v>33</v>
-      </c>
-      <c r="B39" s="99" t="inlineStr">
-        <is>
-          <t>Zelinda Pedroso Almeida</t>
-        </is>
-      </c>
-      <c r="C39" s="33" t="n">
-        <v>21538</v>
-      </c>
-      <c r="D39" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E39" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F39" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G39" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="65" t="n"/>
-      <c r="B40" s="110" t="n"/>
-      <c r="C40" s="110" t="n"/>
-      <c r="D40" s="96" t="n"/>
-      <c r="E40" s="96" t="n"/>
-      <c r="F40" s="96" t="n"/>
-      <c r="G40" s="96" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="65" t="n"/>
-      <c r="B41" s="65" t="n"/>
-      <c r="C41" s="91" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Presentes </t>
-        </is>
-      </c>
-      <c r="D41" s="107" t="n">
-        <v>16</v>
-      </c>
-      <c r="E41" s="107" t="n">
-        <v>16</v>
-      </c>
-      <c r="F41" s="41" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G41" s="107" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="65" t="n"/>
-      <c r="B42" s="65" t="n"/>
-      <c r="C42" s="84" t="inlineStr">
-        <is>
-          <t>Ausentes</t>
-        </is>
-      </c>
-      <c r="D42" s="108" t="n">
-        <v>17</v>
-      </c>
-      <c r="E42" s="108" t="n">
-        <v>17</v>
-      </c>
-      <c r="F42" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G42" s="108" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="65" t="n"/>
-      <c r="B43" s="65" t="n"/>
-      <c r="C43" s="84" t="inlineStr">
-        <is>
-          <t>Visitantes</t>
-        </is>
-      </c>
-      <c r="D43" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="F43" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G43" s="108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="65" t="n"/>
-      <c r="B44" s="65" t="n"/>
-      <c r="C44" s="84" t="inlineStr">
-        <is>
-          <t>Total Presen.</t>
-        </is>
-      </c>
-      <c r="D44" s="108" t="n">
-        <v>17</v>
-      </c>
-      <c r="E44" s="108" t="n">
-        <v>19</v>
-      </c>
-      <c r="F44" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G44" s="108" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="65" t="n"/>
-      <c r="B45" s="65" t="n"/>
-      <c r="C45" s="65" t="n"/>
-      <c r="D45" s="65" t="n"/>
-      <c r="E45" s="65" t="n"/>
-      <c r="F45" s="65" t="n"/>
-      <c r="G45" s="65" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="65" t="n"/>
-      <c r="B46" s="25" t="n"/>
-      <c r="C46" s="65" t="inlineStr">
-        <is>
-          <t>Média: 15,6</t>
-        </is>
-      </c>
-      <c r="D46" s="65" t="n"/>
-      <c r="E46" s="65" t="n"/>
-      <c r="F46" s="65" t="n"/>
-      <c r="G46" s="65" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="65" t="n"/>
-      <c r="B47" s="45" t="n"/>
-      <c r="C47" s="65" t="n"/>
-      <c r="D47" s="65" t="n"/>
-      <c r="E47" s="65" t="n"/>
-      <c r="F47" s="65" t="n"/>
-      <c r="G47" s="65" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="65" t="n"/>
-      <c r="B48" s="109" t="n"/>
-      <c r="C48" s="65" t="n"/>
-      <c r="D48" s="65" t="n"/>
-      <c r="E48" s="65" t="n"/>
-      <c r="F48" s="65" t="n"/>
-      <c r="G48" s="65" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="65" t="n"/>
-      <c r="B49" s="109" t="n"/>
-      <c r="C49" s="65" t="n"/>
-      <c r="D49" s="65" t="n"/>
-      <c r="E49" s="65" t="n"/>
-      <c r="F49" s="65" t="n"/>
-      <c r="G49" s="65" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="65" t="n"/>
-      <c r="B50" s="109" t="n"/>
-      <c r="C50" s="65" t="n"/>
-      <c r="D50" s="65" t="n"/>
-      <c r="E50" s="65" t="n"/>
-      <c r="F50" s="65" t="n"/>
-      <c r="G50" s="65" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="65" t="n"/>
-      <c r="B51" s="109" t="n"/>
-      <c r="C51" s="65" t="n"/>
-      <c r="D51" s="65" t="n"/>
-      <c r="E51" s="65" t="n"/>
-      <c r="F51" s="65" t="n"/>
-      <c r="G51" s="65" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="65" t="n"/>
-      <c r="B52" s="27" t="n"/>
-      <c r="C52" s="65" t="n"/>
-      <c r="D52" s="65" t="n"/>
-      <c r="E52" s="65" t="n"/>
-      <c r="F52" s="65" t="n"/>
-      <c r="G52" s="65" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="65" t="n"/>
-      <c r="B53" s="28" t="n"/>
-      <c r="C53" s="65" t="n"/>
-      <c r="D53" s="65" t="n"/>
-      <c r="E53" s="65" t="n"/>
-      <c r="F53" s="65" t="n"/>
-      <c r="G53" s="65" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="65" t="n"/>
-      <c r="B54" s="28" t="n"/>
-      <c r="C54" s="65" t="n"/>
-      <c r="D54" s="65" t="n"/>
-      <c r="E54" s="65" t="n"/>
-      <c r="F54" s="65" t="n"/>
-      <c r="G54" s="65" t="n"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="65" t="n"/>
-      <c r="B55" s="28" t="n"/>
-      <c r="C55" s="65" t="n"/>
-      <c r="D55" s="65" t="n"/>
-      <c r="E55" s="65" t="n"/>
-      <c r="F55" s="65" t="n"/>
-      <c r="G55" s="65" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="65" t="n"/>
-      <c r="B56" s="28" t="n"/>
-      <c r="C56" s="65" t="n"/>
-      <c r="D56" s="65" t="n"/>
-      <c r="E56" s="65" t="n"/>
-      <c r="F56" s="65" t="n"/>
-      <c r="G56" s="65" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="65" t="n"/>
-      <c r="B57" s="65" t="n"/>
-      <c r="C57" s="65" t="n"/>
-      <c r="D57" s="65" t="n"/>
-      <c r="E57" s="65" t="n"/>
-      <c r="F57" s="65" t="n"/>
-      <c r="G57" s="65" t="n"/>
-    </row>
-    <row r="58">
-      <c r="B58" s="25" t="n"/>
-    </row>
-    <row r="59">
-      <c r="B59" s="28" t="n"/>
-    </row>
-    <row r="60">
-      <c r="B60" s="28" t="n"/>
-    </row>
-    <row r="61">
-      <c r="B61" s="28" t="n"/>
-    </row>
-    <row r="62">
-      <c r="B62" s="28" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:F1"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" gridLines="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" pageOrder="overThenDown" cellComments="atEnd"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col width="8.130000000000001" customWidth="1" style="120" min="1" max="1"/>
-    <col width="33.88" customWidth="1" style="120" min="2" max="2"/>
-    <col width="7.75" customWidth="1" style="120" min="4" max="4"/>
-    <col width="8.25" customWidth="1" style="120" min="5" max="5"/>
-    <col width="8.130000000000001" customWidth="1" style="120" min="6" max="6"/>
-    <col width="8.380000000000001" customWidth="1" style="120" min="7" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="46" t="inlineStr">
-        <is>
-          <t>Classe</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>HOMENS</t>
-        </is>
-      </c>
-      <c r="C1" s="65" t="n"/>
-      <c r="D1" s="65" t="n"/>
-      <c r="E1" s="46" t="inlineStr">
-        <is>
-          <t>Ano: 2025</t>
-        </is>
-      </c>
-      <c r="F1" s="121" t="n"/>
-      <c r="G1" s="6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="46" t="inlineStr">
-        <is>
-          <t>Prof(a)</t>
-        </is>
-      </c>
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>Rev. Welerson</t>
-        </is>
-      </c>
-      <c r="C2" s="65" t="n"/>
-      <c r="D2" s="65" t="n"/>
-      <c r="E2" s="46" t="inlineStr">
-        <is>
-          <t>Mês: Abril</t>
-        </is>
-      </c>
-      <c r="F2" s="121" t="n"/>
-      <c r="G2" s="110" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="110" t="n"/>
-      <c r="B3" s="110" t="n"/>
-      <c r="C3" s="110" t="n"/>
-      <c r="D3" s="65" t="n"/>
-      <c r="E3" s="65" t="n"/>
-      <c r="F3" s="65" t="n"/>
-      <c r="G3" s="65" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="110" t="n"/>
-      <c r="B4" s="110" t="n"/>
-      <c r="C4" s="110" t="n"/>
-      <c r="D4" s="65" t="n"/>
-      <c r="E4" s="65" t="n"/>
-      <c r="F4" s="65" t="n"/>
-      <c r="G4" s="65" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="65" t="n"/>
-      <c r="B5" s="9" t="inlineStr">
-        <is>
-          <t>Nome dos alunos</t>
-        </is>
-      </c>
-      <c r="C5" s="9" t="inlineStr">
-        <is>
-          <t>Data de Nasc.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="n">
-        <v>45753</v>
-      </c>
-      <c r="E5" s="12" t="n">
-        <v>45760</v>
-      </c>
-      <c r="F5" s="12" t="n">
-        <v>45767</v>
-      </c>
-      <c r="G5" s="12" t="n">
-        <v>45774</v>
-      </c>
-      <c r="J5" s="43" t="inlineStr">
-        <is>
-          <t>Adrian Vera</t>
-        </is>
-      </c>
-      <c r="K5" s="34" t="n">
-        <v>28359</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="99" t="inlineStr">
-        <is>
-          <t>Diego de Oliveira Almeida</t>
-        </is>
-      </c>
-      <c r="C6" s="62" t="inlineStr">
-        <is>
-          <t>20/04/1987</t>
-        </is>
-      </c>
-      <c r="D6" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E6" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F6" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G6" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J6" s="43" t="inlineStr">
-        <is>
-          <t>Márcia Regina Morais Silva</t>
-        </is>
-      </c>
-      <c r="K6" s="34" t="n">
-        <v>24320</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="88" t="inlineStr">
-        <is>
-          <t>Diogo Bramont de Azevedo</t>
-        </is>
-      </c>
-      <c r="C7" s="62" t="inlineStr">
-        <is>
-          <t>26/02/1987</t>
-        </is>
-      </c>
-      <c r="D7" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E7" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G7" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J7" s="43" t="inlineStr">
-        <is>
-          <t>Maria da Graça</t>
-        </is>
-      </c>
-      <c r="K7" s="58" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="88" t="inlineStr">
-        <is>
-          <t>Edesio Pedroso de Almeida</t>
-        </is>
-      </c>
-      <c r="C8" s="62" t="inlineStr">
-        <is>
-          <t>23/04/1981</t>
-        </is>
-      </c>
-      <c r="D8" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E8" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F8" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G8" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J8" s="87" t="inlineStr">
-        <is>
-          <t>Cristiane Carvalho Paulino (!)</t>
-        </is>
-      </c>
-      <c r="K8" s="89" t="n">
-        <v>29571</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="88" t="inlineStr">
-        <is>
-          <t>Elias Silvio Santos de Oliveira</t>
-        </is>
-      </c>
-      <c r="C9" s="89" t="n">
-        <v>25142</v>
-      </c>
-      <c r="D9" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E9" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F9" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G9" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="J9" s="43" t="inlineStr">
-        <is>
-          <t>Rebecca Rocha Baldez Teodoro (!)</t>
-        </is>
-      </c>
-      <c r="K9" s="34" t="n">
-        <v>34478</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" s="100" t="inlineStr">
-        <is>
-          <t>Fabricio da Costa</t>
-        </is>
-      </c>
-      <c r="C10" s="89" t="n">
-        <v>32028</v>
-      </c>
-      <c r="D10" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E10" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F10" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G10" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J10" s="43" t="inlineStr">
-        <is>
-          <t>Zelinda Pedroso Almeida (!)</t>
-        </is>
-      </c>
-      <c r="K10" s="33" t="n">
-        <v>21538</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="88" t="inlineStr">
-        <is>
-          <t>Fernando Cruz</t>
-        </is>
-      </c>
-      <c r="C11" s="89" t="n">
-        <v>19316</v>
-      </c>
-      <c r="D11" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E11" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F11" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G11" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J11" s="76" t="inlineStr">
-        <is>
-          <t>Thais Rodrigues Bernardino da Costa</t>
-        </is>
-      </c>
-      <c r="K11" s="68" t="n">
-        <v>32813</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="20" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" s="88" t="inlineStr">
-        <is>
-          <t>Fernando Mena Ribeiro</t>
-        </is>
-      </c>
-      <c r="C12" s="89" t="n">
-        <v>26779</v>
-      </c>
-      <c r="D12" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E12" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F12" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G12" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J12" s="88" t="inlineStr">
-        <is>
-          <t>Fabricio da Costa (!)</t>
-        </is>
-      </c>
-      <c r="K12" s="89" t="n">
-        <v>32028</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="20" t="n">
-        <v>8</v>
-      </c>
-      <c r="B13" s="88" t="inlineStr">
-        <is>
-          <t>Gabriel Pedroso</t>
-        </is>
-      </c>
-      <c r="C13" s="89" t="n">
-        <v>33951</v>
-      </c>
-      <c r="D13" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E13" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F13" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G13" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="J13" s="43" t="inlineStr">
-        <is>
-          <t>Guilherme Henrique Teodoro Ramos (!)</t>
-        </is>
-      </c>
-      <c r="K13" s="34" t="n">
-        <v>35835</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="20" t="n">
-        <v>9</v>
-      </c>
-      <c r="B14" s="88" t="inlineStr">
-        <is>
-          <t>Gerson Maciel Pinto Filho</t>
-        </is>
-      </c>
-      <c r="C14" s="92" t="n">
-        <v>29585</v>
-      </c>
-      <c r="D14" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F14" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G14" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="J14" s="51" t="inlineStr">
-        <is>
-          <t>Beatriz Bernardino da Costa</t>
-        </is>
-      </c>
-      <c r="K14" s="34" t="n">
-        <v>40413</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="20" t="n">
-        <v>10</v>
-      </c>
-      <c r="B15" s="99" t="inlineStr">
-        <is>
-          <t>Guilherme Henrique Teodoro Ramos</t>
-        </is>
-      </c>
-      <c r="C15" s="34" t="n">
-        <v>35835</v>
-      </c>
-      <c r="D15" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F15" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G15" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="20" t="n">
-        <v>11</v>
-      </c>
-      <c r="B16" s="88" t="inlineStr">
-        <is>
-          <t>Itamar Marcelo Pedroso de Almeida</t>
-        </is>
-      </c>
-      <c r="C16" s="89" t="n">
-        <v>26380</v>
-      </c>
-      <c r="D16" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E16" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F16" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G16" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="20" t="n">
-        <v>12</v>
-      </c>
-      <c r="B17" s="88" t="inlineStr">
-        <is>
-          <t>Ivan Freitas Evangelista</t>
-        </is>
-      </c>
-      <c r="C17" s="56" t="n">
-        <v>32444</v>
-      </c>
-      <c r="D17" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E17" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F17" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G17" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="20" t="n">
-        <v>13</v>
-      </c>
-      <c r="B18" s="88" t="inlineStr">
-        <is>
-          <t>João Marcelo</t>
-        </is>
-      </c>
-      <c r="C18" s="89" t="n">
-        <v>29395</v>
-      </c>
-      <c r="D18" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E18" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F18" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G18" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="20" t="n">
-        <v>14</v>
-      </c>
-      <c r="B19" s="88" t="inlineStr">
-        <is>
-          <t>João Victor Sabino Alves dos Santos</t>
-        </is>
-      </c>
-      <c r="C19" s="89" t="n">
-        <v>34096</v>
-      </c>
-      <c r="D19" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E19" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F19" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G19" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="20" t="n">
-        <v>15</v>
-      </c>
-      <c r="B20" s="99" t="inlineStr">
-        <is>
-          <t>Juan Rodrigues de Oliveira</t>
-        </is>
-      </c>
-      <c r="C20" s="33" t="n">
-        <v>36606</v>
-      </c>
-      <c r="D20" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E20" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F20" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G20" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="20" t="n">
-        <v>16</v>
-      </c>
-      <c r="B21" s="88" t="inlineStr">
-        <is>
-          <t>Levi Barros Vieira</t>
-        </is>
-      </c>
-      <c r="C21" s="89" t="n">
-        <v>22514</v>
-      </c>
-      <c r="D21" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E21" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F21" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G21" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="20" t="n">
-        <v>17</v>
-      </c>
-      <c r="B22" s="88" t="inlineStr">
-        <is>
-          <t>Luiz Felipe Pereira</t>
-        </is>
-      </c>
-      <c r="C22" s="89" t="n">
-        <v>34845</v>
-      </c>
-      <c r="D22" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E22" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F22" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G22" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="20" t="n">
-        <v>18</v>
-      </c>
-      <c r="B23" s="87" t="inlineStr">
-        <is>
-          <t>Marcos Antonio M. Soto Filho</t>
-        </is>
-      </c>
-      <c r="C23" s="75" t="n">
-        <v>31757</v>
-      </c>
-      <c r="D23" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E23" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F23" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G23" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B24" s="43" t="inlineStr">
-        <is>
-          <t>Reni Silva</t>
-        </is>
-      </c>
-      <c r="C24" s="42" t="n">
-        <v>26986</v>
-      </c>
-      <c r="D24" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E24" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F24" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G24" s="41" t="inlineStr">
-        <is>
-          <t>MAT.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="20" t="n">
-        <v>20</v>
-      </c>
-      <c r="B25" s="88" t="inlineStr">
-        <is>
-          <t>Ronald Muniz Moraes</t>
-        </is>
-      </c>
-      <c r="C25" s="89" t="n">
-        <v>24026</v>
-      </c>
-      <c r="D25" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E25" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F25" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G25" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="20" t="n">
-        <v>21</v>
-      </c>
-      <c r="B26" s="88" t="inlineStr">
-        <is>
-          <t>Rosinei Carlos de Oliveira Rosa</t>
-        </is>
-      </c>
-      <c r="C26" s="89" t="n">
-        <v>32009</v>
-      </c>
-      <c r="D26" s="16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E26" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F26" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G26" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="20" t="n">
-        <v>22</v>
-      </c>
-      <c r="B27" s="88" t="inlineStr">
-        <is>
-          <t>Valter Souza Duran</t>
-        </is>
-      </c>
-      <c r="C27" s="56" t="n">
-        <v>28880</v>
-      </c>
-      <c r="D27" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E27" s="41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F27" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G27" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="65" t="n"/>
-      <c r="B28" s="65" t="n"/>
-      <c r="C28" s="65" t="n"/>
-      <c r="D28" s="65" t="n"/>
-      <c r="E28" s="65" t="n"/>
-      <c r="F28" s="65" t="n"/>
-      <c r="G28" s="65" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="65" t="n"/>
-      <c r="B29" s="65" t="n"/>
-      <c r="C29" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Presentes </t>
-        </is>
-      </c>
-      <c r="D29" s="77" t="n">
-        <v>15</v>
-      </c>
-      <c r="E29" s="77" t="n">
-        <v>13</v>
-      </c>
-      <c r="F29" s="41" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G29" s="77" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="65" t="n"/>
-      <c r="B30" s="65" t="n"/>
-      <c r="C30" s="24" t="inlineStr">
-        <is>
-          <t>Ausentes</t>
-        </is>
-      </c>
-      <c r="D30" s="77" t="n">
-        <v>7</v>
-      </c>
-      <c r="E30" s="77" t="n">
-        <v>9</v>
-      </c>
-      <c r="F30" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G30" s="77" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="65" t="n"/>
-      <c r="B31" s="65" t="n"/>
-      <c r="C31" s="24" t="inlineStr">
-        <is>
-          <t>Visitantes</t>
-        </is>
-      </c>
-      <c r="D31" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G31" s="77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="65" t="n"/>
-      <c r="B32" s="65" t="n"/>
-      <c r="C32" s="24" t="inlineStr">
-        <is>
-          <t>Total Presen.</t>
-        </is>
-      </c>
-      <c r="D32" s="77" t="n">
-        <v>15</v>
-      </c>
-      <c r="E32" s="77" t="n">
-        <v>14</v>
-      </c>
-      <c r="F32" s="16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G32" s="77" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="110" t="n"/>
-      <c r="B33" s="110" t="n"/>
-      <c r="C33" s="110" t="n"/>
-      <c r="D33" s="110" t="n"/>
-      <c r="E33" s="110" t="n"/>
-      <c r="F33" s="110" t="n"/>
-      <c r="G33" s="110" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="110" t="n"/>
-      <c r="B34" s="25" t="n"/>
-      <c r="C34" s="110" t="inlineStr">
-        <is>
-          <t>Média: 13</t>
-        </is>
-      </c>
-      <c r="D34" s="110" t="n"/>
-      <c r="E34" s="110" t="n"/>
-      <c r="F34" s="110" t="n"/>
-      <c r="G34" s="110" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="110" t="n"/>
-      <c r="B35" s="45" t="n"/>
-      <c r="C35" s="110" t="n"/>
-      <c r="D35" s="110" t="n"/>
-      <c r="E35" s="110" t="n"/>
-      <c r="F35" s="110" t="n"/>
-      <c r="G35" s="110" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="110" t="n"/>
-      <c r="B36" s="45" t="n"/>
-      <c r="C36" s="110" t="n"/>
-      <c r="D36" s="110" t="n"/>
-      <c r="E36" s="110" t="n"/>
-      <c r="F36" s="110" t="n"/>
-      <c r="G36" s="110" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="110" t="n"/>
-      <c r="B37" s="45" t="n"/>
-      <c r="C37" s="110" t="n"/>
-      <c r="D37" s="110" t="n"/>
-      <c r="E37" s="110" t="n"/>
-      <c r="F37" s="110" t="n"/>
-      <c r="G37" s="110" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="110" t="n"/>
-      <c r="B38" s="45" t="n"/>
-      <c r="C38" s="110" t="n"/>
-      <c r="D38" s="110" t="n"/>
-      <c r="E38" s="110" t="n"/>
-      <c r="F38" s="110" t="n"/>
-      <c r="G38" s="110" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="110" t="n"/>
-      <c r="B39" s="109" t="n"/>
-      <c r="C39" s="110" t="n"/>
-      <c r="D39" s="110" t="n"/>
-      <c r="E39" s="110" t="n"/>
-      <c r="F39" s="110" t="n"/>
-      <c r="G39" s="110" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="110" t="n"/>
-      <c r="B40" s="27" t="n"/>
-      <c r="C40" s="110" t="n"/>
-      <c r="D40" s="110" t="n"/>
-      <c r="E40" s="110" t="n"/>
-      <c r="F40" s="110" t="n"/>
-      <c r="G40" s="110" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="110" t="n"/>
-      <c r="B41" s="28" t="n"/>
-      <c r="C41" s="110" t="n"/>
-      <c r="D41" s="110" t="n"/>
-      <c r="E41" s="110" t="n"/>
-      <c r="F41" s="110" t="n"/>
-      <c r="G41" s="110" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="110" t="n"/>
-      <c r="B42" s="28" t="n"/>
-      <c r="C42" s="110" t="n"/>
-      <c r="D42" s="110" t="n"/>
-      <c r="E42" s="110" t="n"/>
-      <c r="F42" s="110" t="n"/>
-      <c r="G42" s="110" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="110" t="n"/>
-      <c r="B43" s="28" t="n"/>
-      <c r="C43" s="110" t="n"/>
-      <c r="D43" s="110" t="n"/>
-      <c r="E43" s="110" t="n"/>
-      <c r="F43" s="110" t="n"/>
-      <c r="G43" s="110" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="110" t="n"/>
-      <c r="B44" s="28" t="n"/>
-      <c r="C44" s="110" t="n"/>
-      <c r="D44" s="110" t="n"/>
-      <c r="E44" s="110" t="n"/>
-      <c r="F44" s="110" t="n"/>
-      <c r="G44" s="110" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="110" t="n"/>
-      <c r="B45" s="65" t="n"/>
-      <c r="C45" s="110" t="n"/>
-      <c r="D45" s="110" t="n"/>
-      <c r="E45" s="110" t="n"/>
-      <c r="F45" s="110" t="n"/>
-      <c r="G45" s="110" t="n"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="25" t="n"/>
-    </row>
-    <row r="47">
-      <c r="B47" s="28" t="n"/>
-    </row>
-    <row r="48">
-      <c r="B48" s="28" t="n"/>
-    </row>
-    <row r="49">
-      <c r="B49" s="28" t="n"/>
-    </row>
-    <row r="50">
-      <c r="B50" s="28" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col width="7.5" customWidth="1" style="120" min="1" max="1"/>
-    <col width="28.13" customWidth="1" style="120" min="2" max="2"/>
-    <col width="8.130000000000001" customWidth="1" style="120" min="4" max="4"/>
-    <col width="8" customWidth="1" style="120" min="5" max="5"/>
-    <col width="7.13" customWidth="1" style="120" min="6" max="6"/>
-    <col width="7.88" customWidth="1" style="120" min="7" max="7"/>
-    <col width="7.75" customWidth="1" style="120" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="46" t="inlineStr">
-        <is>
-          <t>Classe</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>Doutrinas 2</t>
-        </is>
-      </c>
-      <c r="C1" s="65" t="n"/>
-      <c r="D1" s="65" t="n"/>
-      <c r="E1" s="46" t="inlineStr">
-        <is>
-          <t>Ano: 2025</t>
-        </is>
-      </c>
-      <c r="F1" s="121" t="n"/>
-      <c r="G1" s="6" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="46" t="inlineStr">
-        <is>
-          <t>Prof.</t>
-        </is>
-      </c>
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>Pb. Rafael</t>
-        </is>
-      </c>
-      <c r="C2" s="65" t="n"/>
-      <c r="D2" s="65" t="n"/>
-      <c r="E2" s="46" t="inlineStr">
-        <is>
-          <t>Mês: Outubro</t>
-        </is>
-      </c>
-      <c r="F2" s="121" t="n"/>
-      <c r="G2" s="110" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="65" t="n"/>
-      <c r="B3" s="65" t="n"/>
-      <c r="C3" s="65" t="n"/>
-      <c r="D3" s="65" t="n"/>
-      <c r="E3" s="65" t="n"/>
-      <c r="F3" s="65" t="n"/>
-      <c r="G3" s="65" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="65" t="n"/>
-      <c r="B4" s="65" t="n"/>
-      <c r="C4" s="65" t="n"/>
-      <c r="D4" s="65" t="n"/>
-      <c r="E4" s="65" t="n"/>
-      <c r="F4" s="65" t="n"/>
-      <c r="G4" s="65" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="65" t="n"/>
-      <c r="B5" s="9" t="inlineStr">
-        <is>
-          <t>Nome dos alunos</t>
-        </is>
-      </c>
-      <c r="C5" s="9" t="inlineStr">
-        <is>
-          <t>Data de Nasc.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="n">
-        <v>45935</v>
-      </c>
-      <c r="E5" s="12" t="n">
-        <v>45942</v>
-      </c>
-      <c r="F5" s="12" t="n">
-        <v>45949</v>
-      </c>
-      <c r="G5" s="12" t="n">
-        <v>45956</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="43" t="inlineStr">
-        <is>
-          <t>Ana Laura de Lima Santos</t>
-        </is>
-      </c>
-      <c r="C6" s="73" t="n">
-        <v>35170</v>
-      </c>
-      <c r="D6" s="16" t="n"/>
-      <c r="E6" s="17" t="n"/>
-      <c r="F6" s="17" t="n"/>
-      <c r="G6" s="17" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="43" t="inlineStr">
-        <is>
-          <t>Elias Nery</t>
-        </is>
-      </c>
-      <c r="C7" s="73" t="n">
-        <v>37090</v>
-      </c>
-      <c r="D7" s="16" t="n"/>
-      <c r="E7" s="17" t="n"/>
-      <c r="F7" s="17" t="n"/>
-      <c r="G7" s="17" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="117" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="112" t="inlineStr">
-        <is>
-          <t>Helena Sabbatini</t>
-        </is>
-      </c>
-      <c r="C8" s="113" t="n">
-        <v>36934</v>
-      </c>
-      <c r="D8" s="16" t="n"/>
-      <c r="E8" s="76" t="n"/>
-      <c r="F8" s="76" t="n"/>
-      <c r="G8" s="76" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="114" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="115" t="inlineStr">
-        <is>
-          <t>Luiz Gabriel</t>
-        </is>
-      </c>
-      <c r="C9" s="116" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D9" s="16" t="n"/>
-      <c r="E9" s="76" t="n"/>
-      <c r="F9" s="76" t="n"/>
-      <c r="G9" s="76" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" s="43" t="inlineStr">
-        <is>
-          <t>Marlene Costa Martins</t>
-        </is>
-      </c>
-      <c r="C10" s="33" t="n">
-        <v>23002</v>
-      </c>
-      <c r="D10" s="41" t="n"/>
-      <c r="E10" s="76" t="n"/>
-      <c r="F10" s="76" t="n"/>
-      <c r="G10" s="76" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="43" t="inlineStr">
-        <is>
-          <t>Natália Regina Pereira Silva</t>
-        </is>
-      </c>
-      <c r="C11" s="33" t="n">
-        <v>36322</v>
-      </c>
-      <c r="D11" s="16" t="n"/>
-      <c r="E11" s="76" t="n"/>
-      <c r="F11" s="76" t="n"/>
-      <c r="G11" s="76" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="20" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" s="88" t="inlineStr">
-        <is>
-          <t>Pedro Luiz Sevilha Júnior</t>
-        </is>
-      </c>
-      <c r="C12" s="89" t="n">
-        <v>31755</v>
-      </c>
-      <c r="D12" s="16" t="n"/>
-      <c r="E12" s="76" t="n"/>
-      <c r="F12" s="76" t="n"/>
-      <c r="G12" s="76" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="20" t="n">
-        <v>8</v>
-      </c>
-      <c r="B13" s="59" t="inlineStr">
-        <is>
-          <t>Ricardo Augusto Pimentel</t>
-        </is>
-      </c>
-      <c r="C13" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D13" s="16" t="n"/>
-      <c r="E13" s="76" t="n"/>
-      <c r="F13" s="76" t="n"/>
-      <c r="G13" s="76" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="20" t="n">
-        <v>9</v>
-      </c>
-      <c r="B14" s="88" t="inlineStr">
-        <is>
-          <t>Samuel de Oliveira Rosa</t>
-        </is>
-      </c>
-      <c r="C14" s="56" t="n">
-        <v>39846</v>
-      </c>
-      <c r="D14" s="16" t="n"/>
-      <c r="E14" s="76" t="n"/>
-      <c r="F14" s="76" t="n"/>
-      <c r="G14" s="76" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="20" t="n">
-        <v>10</v>
-      </c>
-      <c r="B15" s="43" t="inlineStr">
-        <is>
-          <t>Simone Nunes L. Sousa</t>
-        </is>
-      </c>
-      <c r="C15" s="34" t="n">
-        <v>28500</v>
-      </c>
-      <c r="D15" s="16" t="n"/>
-      <c r="E15" s="76" t="n"/>
-      <c r="F15" s="76" t="n"/>
-      <c r="G15" s="76" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="20" t="n">
-        <v>11</v>
-      </c>
-      <c r="B16" s="43" t="inlineStr">
-        <is>
-          <t>Thiago Henrique Carvalho Oliveira</t>
-        </is>
-      </c>
-      <c r="C16" s="33" t="n">
-        <v>35091</v>
-      </c>
-      <c r="D16" s="16" t="n"/>
-      <c r="E16" s="76" t="n"/>
-      <c r="F16" s="76" t="n"/>
-      <c r="G16" s="76" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="20" t="n">
-        <v>12</v>
-      </c>
-      <c r="B17" s="43" t="inlineStr">
-        <is>
-          <t>Vanin Moreira dos Santos</t>
-        </is>
-      </c>
-      <c r="C17" s="34" t="n">
-        <v>32344</v>
-      </c>
-      <c r="D17" s="16" t="n"/>
-      <c r="E17" s="76" t="n"/>
-      <c r="F17" s="76" t="n"/>
-      <c r="G17" s="76" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="117" t="n">
-        <v>13</v>
-      </c>
-      <c r="B18" s="118" t="inlineStr">
-        <is>
-          <t>Vanessa C. Bramont de Azevedo</t>
-        </is>
-      </c>
-      <c r="C18" s="119" t="inlineStr">
-        <is>
-          <t>31/08/</t>
-        </is>
-      </c>
-      <c r="D18" s="16" t="n"/>
-      <c r="E18" s="76" t="n"/>
-      <c r="F18" s="76" t="n"/>
-      <c r="G18" s="76" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="20" t="n"/>
-      <c r="B19" s="43" t="n"/>
-      <c r="C19" s="33" t="n"/>
-      <c r="D19" s="16" t="n"/>
-      <c r="E19" s="76" t="n"/>
-      <c r="F19" s="76" t="n"/>
-      <c r="G19" s="76" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="20" t="n"/>
-      <c r="B20" s="43" t="n"/>
-      <c r="C20" s="34" t="n"/>
-      <c r="D20" s="16" t="n"/>
-      <c r="E20" s="76" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="76" t="n"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="65" t="n"/>
-      <c r="C22" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Presentes </t>
-        </is>
-      </c>
-      <c r="D22" s="77" t="n"/>
-      <c r="E22" s="77" t="n"/>
-      <c r="F22" s="77" t="n"/>
-      <c r="G22" s="77" t="n"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="110" t="n"/>
-      <c r="C23" s="24" t="inlineStr">
-        <is>
-          <t>Ausentes</t>
-        </is>
-      </c>
-      <c r="D23" s="77" t="n"/>
-      <c r="E23" s="77" t="n"/>
-      <c r="F23" s="77" t="n"/>
-      <c r="G23" s="77" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="65" t="n"/>
-      <c r="C24" s="24" t="inlineStr">
-        <is>
-          <t>Visitantes</t>
-        </is>
-      </c>
-      <c r="D24" s="77" t="n"/>
-      <c r="E24" s="77" t="n"/>
-      <c r="F24" s="77" t="n"/>
-      <c r="G24" s="77" t="n"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="65" t="n"/>
-      <c r="C25" s="24" t="inlineStr">
-        <is>
-          <t>Total Presen.</t>
-        </is>
-      </c>
-      <c r="D25" s="77" t="n"/>
-      <c r="E25" s="77" t="n"/>
-      <c r="F25" s="77" t="n"/>
-      <c r="G25" s="77" t="n"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="25" t="inlineStr">
-        <is>
-          <t>ANIVERSARIANTES:</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="109" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="27" t="inlineStr">
-        <is>
-          <t>ASSUNTO DAS AULAS:</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="28" t="n">
-        <v>45935</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="65" t="n"/>
-      <c r="B31" s="28" t="n">
-        <v>45942</v>
-      </c>
-      <c r="C31" s="65" t="n"/>
-      <c r="D31" s="65" t="n"/>
-      <c r="E31" s="65" t="n"/>
-      <c r="F31" s="65" t="n"/>
-      <c r="G31" s="65" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="65" t="n"/>
-      <c r="B32" s="28" t="n">
-        <v>45949</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="110" t="n"/>
-      <c r="B33" s="28" t="n">
-        <v>45956</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="65" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="65" t="n"/>
-      <c r="B35" s="25" t="inlineStr">
-        <is>
-          <t>VISITAS:</t>
-        </is>
-      </c>
-      <c r="C35" s="110" t="n"/>
-      <c r="D35" s="110" t="n"/>
-      <c r="E35" s="110" t="n"/>
-      <c r="F35" s="110" t="n"/>
-      <c r="G35" s="110" t="n"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="28" t="n">
-        <v>45935</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="28" t="n">
-        <v>45942</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="28" t="n">
-        <v>45949</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="28" t="n">
-        <v>45956</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="30" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col width="7.5" customWidth="1" style="120" min="1" max="1"/>
-    <col width="28.63" customWidth="1" style="120" min="2" max="2"/>
-    <col width="8" customWidth="1" style="120" min="4" max="4"/>
-    <col width="8.130000000000001" customWidth="1" style="120" min="5" max="5"/>
-    <col width="8" customWidth="1" style="120" min="6" max="6"/>
-    <col width="7.88" customWidth="1" style="120" min="7" max="7"/>
-    <col width="8.130000000000001" customWidth="1" style="120" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="46" t="inlineStr">
-        <is>
-          <t>Classe</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>Catecúmenos A</t>
-        </is>
-      </c>
-      <c r="C1" s="65" t="n"/>
-      <c r="D1" s="65" t="n"/>
-      <c r="E1" s="46" t="inlineStr">
-        <is>
-          <t>Ano: 2025</t>
-        </is>
-      </c>
-      <c r="F1" s="121" t="n"/>
-      <c r="G1" s="6" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="46" t="inlineStr">
-        <is>
-          <t>Prof.</t>
-        </is>
-      </c>
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>Lucas</t>
-        </is>
-      </c>
-      <c r="C2" s="65" t="n"/>
-      <c r="D2" s="65" t="n"/>
-      <c r="E2" s="46" t="inlineStr">
-        <is>
-          <t>Mês: Outubro</t>
-        </is>
-      </c>
-      <c r="F2" s="121" t="n"/>
-      <c r="G2" s="110" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="65" t="n"/>
-      <c r="B3" s="65" t="n"/>
-      <c r="C3" s="65" t="n"/>
-      <c r="D3" s="65" t="n"/>
-      <c r="E3" s="65" t="n"/>
-      <c r="F3" s="65" t="n"/>
-      <c r="G3" s="65" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="65" t="n"/>
-      <c r="B4" s="65" t="n"/>
-      <c r="C4" s="65" t="n"/>
-      <c r="D4" s="65" t="n"/>
-      <c r="E4" s="65" t="n"/>
-      <c r="F4" s="65" t="n"/>
-      <c r="G4" s="65" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="65" t="n"/>
-      <c r="B5" s="9" t="inlineStr">
-        <is>
-          <t>Nome dos alunos</t>
-        </is>
-      </c>
-      <c r="C5" s="9" t="inlineStr">
-        <is>
-          <t>Data de Nasc.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="n">
-        <v>45935</v>
-      </c>
-      <c r="E5" s="12" t="n">
-        <v>45942</v>
-      </c>
-      <c r="F5" s="12" t="n">
-        <v>45949</v>
-      </c>
-      <c r="G5" s="12" t="n">
-        <v>45956</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="43" t="inlineStr">
-        <is>
-          <t>Adriano Sambati</t>
-        </is>
-      </c>
-      <c r="C6" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" s="16" t="n"/>
-      <c r="E6" s="17" t="n"/>
-      <c r="F6" s="17" t="n"/>
-      <c r="G6" s="17" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="59" t="inlineStr">
-        <is>
-          <t>Bruno Henrique de O. Camargo</t>
-        </is>
-      </c>
-      <c r="C7" s="63" t="inlineStr">
-        <is>
-          <t>18/04/1988</t>
-        </is>
-      </c>
-      <c r="D7" s="16" t="n"/>
-      <c r="E7" s="17" t="n"/>
-      <c r="F7" s="17" t="n"/>
-      <c r="G7" s="17" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="64" t="inlineStr">
-        <is>
-          <t>Bruno Hugoline Prado</t>
-        </is>
-      </c>
-      <c r="C8" s="34" t="n">
-        <v>33817</v>
-      </c>
-      <c r="D8" s="16" t="n"/>
-      <c r="E8" s="17" t="n"/>
-      <c r="F8" s="17" t="n"/>
-      <c r="G8" s="17" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="64" t="inlineStr">
-        <is>
-          <t>Célia Regina Zulatto Fiorotto Sevilha</t>
-        </is>
-      </c>
-      <c r="C9" s="58" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D9" s="16" t="n"/>
-      <c r="E9" s="76" t="n"/>
-      <c r="F9" s="76" t="n"/>
-      <c r="G9" s="76" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" s="64" t="inlineStr">
-        <is>
-          <t>Cláudia Henrique Miranda Porto</t>
-        </is>
-      </c>
-      <c r="C10" s="33" t="n">
-        <v>28780</v>
-      </c>
-      <c r="D10" s="16" t="n"/>
-      <c r="E10" s="76" t="n"/>
-      <c r="F10" s="76" t="n"/>
-      <c r="G10" s="76" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="43" t="inlineStr">
-        <is>
-          <t>Davi Muniz de Oliveira</t>
-        </is>
-      </c>
-      <c r="C11" s="33" t="n">
-        <v>40116</v>
-      </c>
-      <c r="D11" s="16" t="n"/>
-      <c r="E11" s="76" t="n"/>
-      <c r="F11" s="76" t="n"/>
-      <c r="G11" s="76" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="20" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" s="43" t="inlineStr">
-        <is>
-          <t>Hilda Izabel Loureiro Sambati</t>
-        </is>
-      </c>
-      <c r="C12" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D12" s="16" t="n"/>
-      <c r="E12" s="76" t="n"/>
-      <c r="F12" s="76" t="n"/>
-      <c r="G12" s="76" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="20" t="n">
-        <v>8</v>
-      </c>
-      <c r="B13" s="88" t="inlineStr">
-        <is>
-          <t>Jean Evangelista</t>
-        </is>
-      </c>
-      <c r="C13" s="89" t="n">
-        <v>32986</v>
-      </c>
-      <c r="D13" s="16" t="n"/>
-      <c r="E13" s="76" t="n"/>
-      <c r="F13" s="76" t="n"/>
-      <c r="G13" s="76" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="20" t="n">
-        <v>9</v>
-      </c>
-      <c r="B14" s="88" t="inlineStr">
-        <is>
-          <t>Jéssica Mônica Guerra Camargo</t>
-        </is>
-      </c>
-      <c r="C14" s="75" t="n">
-        <v>32223</v>
-      </c>
-      <c r="D14" s="16" t="n"/>
-      <c r="E14" s="76" t="n"/>
-      <c r="F14" s="76" t="n"/>
-      <c r="G14" s="76" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="20" t="n">
-        <v>10</v>
-      </c>
-      <c r="B15" s="64" t="inlineStr">
-        <is>
-          <t>Jessé Almeida Guerra</t>
-        </is>
-      </c>
-      <c r="C15" s="89" t="n">
-        <v>32920</v>
-      </c>
-      <c r="D15" s="16" t="n"/>
-      <c r="E15" s="76" t="n"/>
-      <c r="F15" s="76" t="n"/>
-      <c r="G15" s="76" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="20" t="n">
-        <v>11</v>
-      </c>
-      <c r="B16" s="64" t="inlineStr">
-        <is>
-          <t>Jorigon Porto Gonçalves</t>
-        </is>
-      </c>
-      <c r="C16" s="89" t="n">
-        <v>28446</v>
-      </c>
-      <c r="D16" s="16" t="n"/>
-      <c r="E16" s="76" t="n"/>
-      <c r="F16" s="76" t="n"/>
-      <c r="G16" s="76" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="20" t="n">
-        <v>12</v>
-      </c>
-      <c r="B17" s="66" t="inlineStr">
-        <is>
-          <t>Nayara de Abreu Prado</t>
-        </is>
-      </c>
-      <c r="C17" s="63" t="inlineStr">
-        <is>
-          <t>31/01/1994</t>
-        </is>
-      </c>
-      <c r="D17" s="16" t="n"/>
-      <c r="E17" s="76" t="n"/>
-      <c r="F17" s="76" t="n"/>
-      <c r="G17" s="76" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="20" t="n">
-        <v>13</v>
-      </c>
-      <c r="B18" s="87" t="inlineStr">
-        <is>
-          <t>Rafael Oscar de Moraes Cruz</t>
-        </is>
-      </c>
-      <c r="C18" s="62" t="inlineStr">
-        <is>
-          <t>26/12/1981</t>
-        </is>
-      </c>
-      <c r="D18" s="16" t="n"/>
-      <c r="E18" s="76" t="n"/>
-      <c r="F18" s="76" t="n"/>
-      <c r="G18" s="76" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="20" t="n">
-        <v>14</v>
-      </c>
-      <c r="B19" s="59" t="inlineStr">
-        <is>
-          <t>Rita Jurity Cardoso</t>
-        </is>
-      </c>
-      <c r="C19" s="52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D19" s="16" t="n"/>
-      <c r="E19" s="76" t="n"/>
-      <c r="F19" s="76" t="n"/>
-      <c r="G19" s="76" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="20" t="n">
-        <v>15</v>
-      </c>
-      <c r="B20" s="43" t="inlineStr">
-        <is>
-          <t>Thayene Piovan Guerra</t>
-        </is>
-      </c>
-      <c r="C20" s="89" t="n">
-        <v>35734</v>
-      </c>
-      <c r="D20" s="16" t="n"/>
-      <c r="E20" s="76" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="76" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="20" t="n">
-        <v>16</v>
-      </c>
-      <c r="B21" s="81" t="inlineStr">
-        <is>
-          <t>Vivian Delfini Cruz</t>
-        </is>
-      </c>
-      <c r="C21" s="89" t="n">
-        <v>30779</v>
-      </c>
-      <c r="D21" s="16" t="n"/>
-      <c r="E21" s="76" t="n"/>
-      <c r="F21" s="76" t="n"/>
-      <c r="G21" s="76" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="20" t="n"/>
-      <c r="B22" s="43" t="n"/>
-      <c r="C22" s="89" t="n"/>
-      <c r="D22" s="16" t="n"/>
-      <c r="E22" s="76" t="n"/>
-      <c r="F22" s="76" t="n"/>
-      <c r="G22" s="76" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="65" t="n"/>
-      <c r="C24" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Presentes </t>
-        </is>
-      </c>
-      <c r="D24" s="77" t="n"/>
-      <c r="E24" s="77" t="n"/>
-      <c r="F24" s="77" t="n"/>
-      <c r="G24" s="77" t="n"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="110" t="n"/>
-      <c r="C25" s="24" t="inlineStr">
-        <is>
-          <t>Ausentes</t>
-        </is>
-      </c>
-      <c r="D25" s="77" t="n"/>
-      <c r="E25" s="77" t="n"/>
-      <c r="F25" s="77" t="n"/>
-      <c r="G25" s="77" t="n"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="65" t="n"/>
-      <c r="C26" s="24" t="inlineStr">
-        <is>
-          <t>Visitantes</t>
-        </is>
-      </c>
-      <c r="D26" s="77" t="n"/>
-      <c r="E26" s="77" t="n"/>
-      <c r="F26" s="77" t="n"/>
-      <c r="G26" s="77" t="n"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="65" t="n"/>
-      <c r="C27" s="24" t="inlineStr">
-        <is>
-          <t>Total Presen.</t>
-        </is>
-      </c>
-      <c r="D27" s="77" t="n"/>
-      <c r="E27" s="77" t="n"/>
-      <c r="F27" s="77" t="n"/>
-      <c r="G27" s="77" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="25" t="inlineStr">
-        <is>
-          <t>ANIVERSARIANTES:</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="65" t="inlineStr">
-        <is>
-          <t>Cláudia Henrique Miranda Porto - 17/10</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="50" t="inlineStr">
-        <is>
-          <t>Davi Muniz de Oliveira - 30/10</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="110" t="n"/>
-      <c r="B32" s="50" t="inlineStr">
-        <is>
-          <t>Thayene Piovan Guerra - 31/10</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="65" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="65" t="n"/>
-      <c r="B34" s="27" t="inlineStr">
-        <is>
-          <t>ASSUNTO DAS AULAS:</t>
-        </is>
-      </c>
-      <c r="C34" s="110" t="n"/>
-      <c r="D34" s="110" t="n"/>
-      <c r="E34" s="110" t="n"/>
-      <c r="F34" s="110" t="n"/>
-      <c r="G34" s="110" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="65" t="n"/>
-      <c r="B35" s="28" t="n">
-        <v>45935</v>
-      </c>
-      <c r="C35" s="65" t="n"/>
-      <c r="D35" s="65" t="n"/>
-      <c r="E35" s="65" t="n"/>
-      <c r="F35" s="65" t="n"/>
-      <c r="G35" s="65" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="65" t="n"/>
-      <c r="B36" s="28" t="n">
-        <v>45942</v>
-      </c>
-      <c r="C36" s="65" t="n"/>
-      <c r="D36" s="65" t="n"/>
-      <c r="E36" s="65" t="n"/>
-      <c r="F36" s="65" t="n"/>
-      <c r="G36" s="65" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="65" t="n"/>
-      <c r="B37" s="28" t="n">
-        <v>45949</v>
-      </c>
-      <c r="C37" s="29" t="n"/>
-      <c r="D37" s="65" t="n"/>
-      <c r="E37" s="65" t="n"/>
-      <c r="F37" s="65" t="n"/>
-      <c r="G37" s="65" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="29" t="n"/>
-      <c r="B38" s="28" t="n">
-        <v>45956</v>
-      </c>
-      <c r="C38" s="29" t="n"/>
-      <c r="D38" s="65" t="n"/>
-      <c r="E38" s="65" t="n"/>
-      <c r="F38" s="65" t="n"/>
-      <c r="G38" s="65" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="65" t="n"/>
-      <c r="C39" s="65" t="n"/>
-      <c r="D39" s="65" t="n"/>
-      <c r="E39" s="65" t="n"/>
-      <c r="F39" s="65" t="n"/>
-      <c r="G39" s="65" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="65" t="n"/>
-      <c r="B40" s="25" t="inlineStr">
-        <is>
-          <t>VISITAS:</t>
-        </is>
-      </c>
-      <c r="C40" s="65" t="n"/>
-      <c r="D40" s="65" t="n"/>
-      <c r="E40" s="65" t="n"/>
-      <c r="F40" s="65" t="n"/>
-      <c r="G40" s="65" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="65" t="n"/>
-      <c r="B41" s="28" t="n">
-        <v>45935</v>
-      </c>
-      <c r="C41" s="65" t="n"/>
-      <c r="D41" s="65" t="n"/>
-      <c r="E41" s="65" t="n"/>
-      <c r="F41" s="65" t="n"/>
-      <c r="G41" s="65" t="n"/>
-    </row>
-    <row r="42">
-      <c r="B42" s="28" t="n">
-        <v>45942</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="28" t="n">
-        <v>45949</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="28" t="n">
-        <v>45956</v>
       </c>
     </row>
   </sheetData>
@@ -5825,7 +2086,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5862,6 +2123,7 @@
       </c>
       <c r="F1" s="121" t="n"/>
       <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="46" t="inlineStr">
@@ -5883,6 +2145,7 @@
       </c>
       <c r="F2" s="121" t="n"/>
       <c r="G2" s="110" t="n"/>
+      <c r="H2" s="110" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="65" t="n"/>
@@ -5892,6 +2155,7 @@
       <c r="E3" s="65" t="n"/>
       <c r="F3" s="65" t="n"/>
       <c r="G3" s="65" t="n"/>
+      <c r="H3" s="65" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="65" t="n"/>
@@ -5901,6 +2165,7 @@
       <c r="E4" s="65" t="n"/>
       <c r="F4" s="65" t="n"/>
       <c r="G4" s="65" t="n"/>
+      <c r="H4" s="65" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="65" t="n"/>
@@ -5914,19 +2179,19 @@
           <t>Data de Nasc.</t>
         </is>
       </c>
-      <c r="D5" s="123" t="n">
+      <c r="D5" s="122" t="n">
         <v>45963</v>
       </c>
-      <c r="E5" s="124" t="n">
+      <c r="E5" s="123" t="n">
         <v>45970</v>
       </c>
-      <c r="F5" s="124" t="n">
+      <c r="F5" s="123" t="n">
         <v>45977</v>
       </c>
-      <c r="G5" s="124" t="n">
+      <c r="G5" s="123" t="n">
         <v>45984</v>
       </c>
-      <c r="H5" s="124" t="n">
+      <c r="H5" s="123" t="n">
         <v>45991</v>
       </c>
     </row>
@@ -6444,7 +2709,7 @@
     </row>
     <row r="37">
       <c r="A37" s="65" t="n"/>
-      <c r="B37" s="0" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" s="65" t="n"/>
       <c r="D37" s="65" t="n"/>
       <c r="E37" s="65" t="n"/>
@@ -6468,7 +2733,7 @@
     </row>
     <row r="39">
       <c r="A39" s="29" t="n"/>
-      <c r="B39" s="126" t="n">
+      <c r="B39" s="124" t="n">
         <v>45963</v>
       </c>
       <c r="C39" s="65" t="n"/>
@@ -6480,7 +2745,7 @@
     </row>
     <row r="40">
       <c r="A40" s="29" t="n"/>
-      <c r="B40" s="126" t="n">
+      <c r="B40" s="124" t="n">
         <v>45970</v>
       </c>
       <c r="C40" s="65" t="n"/>
@@ -6492,7 +2757,7 @@
     </row>
     <row r="41">
       <c r="A41" s="65" t="n"/>
-      <c r="B41" s="126" t="n">
+      <c r="B41" s="124" t="n">
         <v>45977</v>
       </c>
       <c r="C41" s="65" t="n"/>
@@ -6504,7 +2769,7 @@
     </row>
     <row r="42">
       <c r="A42" s="65" t="n"/>
-      <c r="B42" s="126" t="n">
+      <c r="B42" s="124" t="n">
         <v>45984</v>
       </c>
       <c r="C42" s="65" t="n"/>
@@ -6527,22 +2792,22 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" s="126" t="n">
+      <c r="B45" s="124" t="n">
         <v>45963</v>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="126" t="n">
+      <c r="B46" s="124" t="n">
         <v>45970</v>
       </c>
     </row>
     <row r="47">
-      <c r="B47" s="126" t="n">
+      <c r="B47" s="124" t="n">
         <v>45977</v>
       </c>
     </row>
     <row r="48">
-      <c r="B48" s="126" t="n">
+      <c r="B48" s="124" t="n">
         <v>45984</v>
       </c>
     </row>
@@ -6552,10 +2817,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" s="0" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="B51" s="0" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="B52" s="30" t="inlineStr"/>
@@ -6577,7 +2842,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6612,6 +2877,7 @@
       </c>
       <c r="F1" s="121" t="n"/>
       <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="46" t="inlineStr">
@@ -6633,6 +2899,7 @@
       </c>
       <c r="F2" s="121" t="n"/>
       <c r="G2" s="110" t="n"/>
+      <c r="H2" s="110" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="65" t="n"/>
@@ -6642,6 +2909,7 @@
       <c r="E3" s="65" t="n"/>
       <c r="F3" s="65" t="n"/>
       <c r="G3" s="65" t="n"/>
+      <c r="H3" s="65" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="65" t="n"/>
@@ -6651,6 +2919,7 @@
       <c r="E4" s="65" t="n"/>
       <c r="F4" s="65" t="n"/>
       <c r="G4" s="65" t="n"/>
+      <c r="H4" s="65" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="65" t="n"/>
@@ -6664,19 +2933,19 @@
           <t>Dat. Nasc.</t>
         </is>
       </c>
-      <c r="D5" s="123" t="n">
+      <c r="D5" s="122" t="n">
         <v>45963</v>
       </c>
-      <c r="E5" s="124" t="n">
+      <c r="E5" s="123" t="n">
         <v>45970</v>
       </c>
-      <c r="F5" s="124" t="n">
+      <c r="F5" s="123" t="n">
         <v>45977</v>
       </c>
-      <c r="G5" s="124" t="n">
+      <c r="G5" s="123" t="n">
         <v>45984</v>
       </c>
-      <c r="H5" s="124" t="n">
+      <c r="H5" s="123" t="n">
         <v>45991</v>
       </c>
     </row>
@@ -7048,7 +3317,7 @@
       <c r="A29" s="65" t="n"/>
       <c r="B29" s="109" t="inlineStr">
         <is>
-          <t>Eytor Henrique Apolinário de Campos - 04/11</t>
+          <t>Heitor Maciel de Oliveira - 01/11</t>
         </is>
       </c>
       <c r="C29" s="65" t="n"/>
@@ -7062,7 +3331,7 @@
       <c r="A30" s="65" t="n"/>
       <c r="B30" s="50" t="inlineStr">
         <is>
-          <t>Heitor Maciel de Oliveira - 01/11</t>
+          <t>Eytor Henrique Apolinário de Campos - 04/11</t>
         </is>
       </c>
       <c r="C30" s="65" t="n"/>
@@ -7074,9 +3343,9 @@
     </row>
     <row r="31">
       <c r="A31" s="65" t="n"/>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t>Lorena Apolinário de Campos - 20/11</t>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Lorrana Marques Moreira - 14/11</t>
         </is>
       </c>
       <c r="C31" s="65" t="n"/>
@@ -7087,9 +3356,9 @@
       <c r="H31" s="65" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>Lorrana Marques Moreira - 14/11</t>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Lorena Apolinário de Campos - 20/11</t>
         </is>
       </c>
     </row>
@@ -7109,7 +3378,7 @@
     </row>
     <row r="34">
       <c r="A34" s="65" t="n"/>
-      <c r="B34" s="126" t="n">
+      <c r="B34" s="124" t="n">
         <v>45963</v>
       </c>
       <c r="C34" s="65" t="n"/>
@@ -7120,17 +3389,17 @@
       <c r="H34" s="65" t="n"/>
     </row>
     <row r="35">
-      <c r="B35" s="126" t="n">
+      <c r="B35" s="124" t="n">
         <v>45970</v>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="126" t="n">
+      <c r="B36" s="124" t="n">
         <v>45977</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="126" t="n">
+      <c r="B37" s="124" t="n">
         <v>45984</v>
       </c>
     </row>
@@ -7147,22 +3416,22 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="126" t="n">
+      <c r="B40" s="124" t="n">
         <v>45963</v>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="126" t="n">
+      <c r="B41" s="124" t="n">
         <v>45970</v>
       </c>
     </row>
     <row r="42">
-      <c r="B42" s="126" t="n">
+      <c r="B42" s="124" t="n">
         <v>45977</v>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="126" t="n">
+      <c r="B43" s="124" t="n">
         <v>45984</v>
       </c>
     </row>
@@ -7186,7 +3455,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7222,6 +3491,7 @@
       </c>
       <c r="F1" s="121" t="n"/>
       <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="46" t="inlineStr">
@@ -7243,6 +3513,7 @@
       </c>
       <c r="F2" s="121" t="n"/>
       <c r="G2" s="110" t="n"/>
+      <c r="H2" s="110" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="65" t="n"/>
@@ -7252,6 +3523,7 @@
       <c r="E3" s="65" t="n"/>
       <c r="F3" s="65" t="n"/>
       <c r="G3" s="65" t="n"/>
+      <c r="H3" s="65" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="65" t="n"/>
@@ -7261,6 +3533,7 @@
       <c r="E4" s="65" t="n"/>
       <c r="F4" s="65" t="n"/>
       <c r="G4" s="65" t="n"/>
+      <c r="H4" s="65" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="65" t="n"/>
@@ -7274,19 +3547,19 @@
           <t>Data de Nasc.</t>
         </is>
       </c>
-      <c r="D5" s="123" t="n">
+      <c r="D5" s="122" t="n">
         <v>45963</v>
       </c>
-      <c r="E5" s="124" t="n">
+      <c r="E5" s="123" t="n">
         <v>45970</v>
       </c>
-      <c r="F5" s="124" t="n">
+      <c r="F5" s="123" t="n">
         <v>45977</v>
       </c>
-      <c r="G5" s="124" t="n">
+      <c r="G5" s="123" t="n">
         <v>45984</v>
       </c>
-      <c r="H5" s="124" t="n">
+      <c r="H5" s="123" t="n">
         <v>45991</v>
       </c>
     </row>
@@ -7626,7 +3899,7 @@
     </row>
     <row r="27">
       <c r="A27" s="65" t="n"/>
-      <c r="B27" s="0" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" s="110" t="n"/>
       <c r="D27" s="65" t="n"/>
       <c r="E27" s="65" t="n"/>
@@ -7650,7 +3923,7 @@
     </row>
     <row r="29">
       <c r="A29" s="65" t="n"/>
-      <c r="B29" s="126" t="n">
+      <c r="B29" s="124" t="n">
         <v>45963</v>
       </c>
       <c r="C29" s="110" t="n"/>
@@ -7662,7 +3935,7 @@
     </row>
     <row r="30">
       <c r="A30" s="65" t="n"/>
-      <c r="B30" s="126" t="n">
+      <c r="B30" s="124" t="n">
         <v>45970</v>
       </c>
       <c r="C30" s="65" t="n"/>
@@ -7673,12 +3946,12 @@
       <c r="H30" s="65" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="126" t="n">
+      <c r="B31" s="124" t="n">
         <v>45977</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="126" t="n">
+      <c r="B32" s="124" t="n">
         <v>45984</v>
       </c>
     </row>
@@ -7695,22 +3968,22 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="126" t="n">
+      <c r="B35" s="124" t="n">
         <v>45963</v>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="126" t="n">
+      <c r="B36" s="124" t="n">
         <v>45970</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="126" t="n">
+      <c r="B37" s="124" t="n">
         <v>45977</v>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="126" t="n">
+      <c r="B38" s="124" t="n">
         <v>45984</v>
       </c>
     </row>
@@ -7720,13 +3993,13 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="0" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="B41" s="0" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="B42" s="0" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="B43" s="30" t="inlineStr"/>
@@ -7746,7 +4019,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7783,6 +4056,7 @@
       </c>
       <c r="F1" s="121" t="n"/>
       <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="46" t="inlineStr">
@@ -7804,6 +4078,7 @@
       </c>
       <c r="F2" s="121" t="n"/>
       <c r="G2" s="110" t="n"/>
+      <c r="H2" s="110" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="65" t="n"/>
@@ -7813,6 +4088,7 @@
       <c r="E3" s="65" t="n"/>
       <c r="F3" s="65" t="n"/>
       <c r="G3" s="65" t="n"/>
+      <c r="H3" s="65" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="65" t="n"/>
@@ -7822,6 +4098,7 @@
       <c r="E4" s="65" t="n"/>
       <c r="F4" s="65" t="n"/>
       <c r="G4" s="65" t="n"/>
+      <c r="H4" s="65" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="65" t="n"/>
@@ -7835,19 +4112,19 @@
           <t>Data de Nasc.</t>
         </is>
       </c>
-      <c r="D5" s="123" t="n">
+      <c r="D5" s="122" t="n">
         <v>45963</v>
       </c>
-      <c r="E5" s="124" t="n">
+      <c r="E5" s="123" t="n">
         <v>45970</v>
       </c>
-      <c r="F5" s="124" t="n">
+      <c r="F5" s="123" t="n">
         <v>45977</v>
       </c>
-      <c r="G5" s="124" t="n">
+      <c r="G5" s="123" t="n">
         <v>45984</v>
       </c>
-      <c r="H5" s="124" t="n">
+      <c r="H5" s="123" t="n">
         <v>45991</v>
       </c>
     </row>
@@ -8132,19 +4409,19 @@
     </row>
     <row r="27">
       <c r="A27" s="110" t="n"/>
-      <c r="B27" s="126" t="n">
+      <c r="B27" s="124" t="n">
         <v>45963</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="65" t="n"/>
-      <c r="B28" s="126" t="n">
+      <c r="B28" s="124" t="n">
         <v>45970</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="65" t="n"/>
-      <c r="B29" s="126" t="n">
+      <c r="B29" s="124" t="n">
         <v>45977</v>
       </c>
       <c r="C29" s="110" t="n"/>
@@ -8156,7 +4433,7 @@
     </row>
     <row r="30">
       <c r="A30" s="65" t="n"/>
-      <c r="B30" s="126" t="n">
+      <c r="B30" s="124" t="n">
         <v>45984</v>
       </c>
       <c r="C30" s="65" t="n"/>
@@ -8194,7 +4471,7 @@
     </row>
     <row r="33">
       <c r="A33" s="29" t="n"/>
-      <c r="B33" s="126" t="n">
+      <c r="B33" s="124" t="n">
         <v>45963</v>
       </c>
       <c r="C33" s="29" t="n"/>
@@ -8206,7 +4483,7 @@
     </row>
     <row r="34">
       <c r="A34" s="65" t="n"/>
-      <c r="B34" s="126" t="n">
+      <c r="B34" s="124" t="n">
         <v>45970</v>
       </c>
       <c r="C34" s="65" t="n"/>
@@ -8218,7 +4495,7 @@
     </row>
     <row r="35">
       <c r="A35" s="65" t="n"/>
-      <c r="B35" s="126" t="n">
+      <c r="B35" s="124" t="n">
         <v>45977</v>
       </c>
       <c r="C35" s="65" t="n"/>
@@ -8230,7 +4507,7 @@
     </row>
     <row r="36">
       <c r="A36" s="65" t="n"/>
-      <c r="B36" s="126" t="n">
+      <c r="B36" s="124" t="n">
         <v>45984</v>
       </c>
       <c r="C36" s="65" t="n"/>
@@ -8262,7 +4539,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8299,6 +4576,7 @@
       </c>
       <c r="F1" s="121" t="n"/>
       <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="46" t="inlineStr">
@@ -8320,6 +4598,7 @@
       </c>
       <c r="F2" s="121" t="n"/>
       <c r="G2" s="110" t="n"/>
+      <c r="H2" s="110" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="65" t="n"/>
@@ -8329,6 +4608,7 @@
       <c r="E3" s="65" t="n"/>
       <c r="F3" s="65" t="n"/>
       <c r="G3" s="65" t="n"/>
+      <c r="H3" s="65" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="65" t="n"/>
@@ -8338,6 +4618,7 @@
       <c r="E4" s="65" t="n"/>
       <c r="F4" s="65" t="n"/>
       <c r="G4" s="65" t="n"/>
+      <c r="H4" s="65" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="65" t="n"/>
@@ -8351,19 +4632,19 @@
           <t>Data de Nasc.</t>
         </is>
       </c>
-      <c r="D5" s="123" t="n">
+      <c r="D5" s="122" t="n">
         <v>45963</v>
       </c>
-      <c r="E5" s="124" t="n">
+      <c r="E5" s="123" t="n">
         <v>45970</v>
       </c>
-      <c r="F5" s="124" t="n">
+      <c r="F5" s="123" t="n">
         <v>45977</v>
       </c>
-      <c r="G5" s="124" t="n">
+      <c r="G5" s="123" t="n">
         <v>45984</v>
       </c>
-      <c r="H5" s="124" t="n">
+      <c r="H5" s="123" t="n">
         <v>45991</v>
       </c>
     </row>
@@ -8667,7 +4948,7 @@
       <c r="B27" s="50" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="B28" s="0" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="B29" s="27" t="inlineStr">
@@ -8677,13 +4958,13 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="126" t="n">
+      <c r="B30" s="124" t="n">
         <v>45963</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="65" t="n"/>
-      <c r="B31" s="126" t="n">
+      <c r="B31" s="124" t="n">
         <v>45970</v>
       </c>
       <c r="C31" s="65" t="n"/>
@@ -8695,13 +4976,13 @@
     </row>
     <row r="32">
       <c r="A32" s="65" t="n"/>
-      <c r="B32" s="126" t="n">
+      <c r="B32" s="124" t="n">
         <v>45977</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="110" t="n"/>
-      <c r="B33" s="126" t="n">
+      <c r="B33" s="124" t="n">
         <v>45984</v>
       </c>
     </row>
@@ -8726,22 +5007,22 @@
       <c r="H35" s="110" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" s="126" t="n">
+      <c r="B36" s="124" t="n">
         <v>45963</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="126" t="n">
+      <c r="B37" s="124" t="n">
         <v>45970</v>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="126" t="n">
+      <c r="B38" s="124" t="n">
         <v>45977</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="126" t="n">
+      <c r="B39" s="124" t="n">
         <v>45984</v>
       </c>
     </row>
@@ -8751,13 +5032,13 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="0" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="B42" s="0" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="B43" s="0" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="B44" s="30" t="inlineStr"/>
@@ -8779,7 +5060,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8815,6 +5096,7 @@
       </c>
       <c r="F1" s="121" t="n"/>
       <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="46" t="inlineStr">
@@ -8836,6 +5118,7 @@
       </c>
       <c r="F2" s="121" t="n"/>
       <c r="G2" s="110" t="n"/>
+      <c r="H2" s="110" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="65" t="n"/>
@@ -8845,6 +5128,7 @@
       <c r="E3" s="65" t="n"/>
       <c r="F3" s="65" t="n"/>
       <c r="G3" s="65" t="n"/>
+      <c r="H3" s="65" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="65" t="n"/>
@@ -8854,6 +5138,7 @@
       <c r="E4" s="65" t="n"/>
       <c r="F4" s="65" t="n"/>
       <c r="G4" s="65" t="n"/>
+      <c r="H4" s="65" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="65" t="n"/>
@@ -8867,19 +5152,19 @@
           <t>Data de Nasc.</t>
         </is>
       </c>
-      <c r="D5" s="123" t="n">
+      <c r="D5" s="122" t="n">
         <v>45963</v>
       </c>
-      <c r="E5" s="124" t="n">
+      <c r="E5" s="123" t="n">
         <v>45970</v>
       </c>
-      <c r="F5" s="124" t="n">
+      <c r="F5" s="123" t="n">
         <v>45977</v>
       </c>
-      <c r="G5" s="124" t="n">
+      <c r="G5" s="123" t="n">
         <v>45984</v>
       </c>
-      <c r="H5" s="124" t="n">
+      <c r="H5" s="123" t="n">
         <v>45991</v>
       </c>
     </row>
@@ -9637,7 +5922,7 @@
     </row>
     <row r="50">
       <c r="A50" s="65" t="n"/>
-      <c r="B50" s="0" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" s="65" t="n"/>
       <c r="D50" s="65" t="n"/>
       <c r="E50" s="65" t="n"/>
@@ -9661,7 +5946,7 @@
     </row>
     <row r="52">
       <c r="A52" s="65" t="n"/>
-      <c r="B52" s="126" t="n">
+      <c r="B52" s="124" t="n">
         <v>45963</v>
       </c>
       <c r="C52" s="65" t="n"/>
@@ -9673,7 +5958,7 @@
     </row>
     <row r="53">
       <c r="A53" s="65" t="n"/>
-      <c r="B53" s="126" t="n">
+      <c r="B53" s="124" t="n">
         <v>45970</v>
       </c>
       <c r="C53" s="65" t="n"/>
@@ -9685,7 +5970,7 @@
     </row>
     <row r="54">
       <c r="A54" s="65" t="n"/>
-      <c r="B54" s="126" t="n">
+      <c r="B54" s="124" t="n">
         <v>45977</v>
       </c>
       <c r="C54" s="65" t="n"/>
@@ -9697,7 +5982,7 @@
     </row>
     <row r="55">
       <c r="A55" s="65" t="n"/>
-      <c r="B55" s="126" t="n">
+      <c r="B55" s="124" t="n">
         <v>45984</v>
       </c>
       <c r="C55" s="65" t="n"/>
@@ -9735,7 +6020,7 @@
     </row>
     <row r="58">
       <c r="A58" s="65" t="n"/>
-      <c r="B58" s="126" t="n">
+      <c r="B58" s="124" t="n">
         <v>45963</v>
       </c>
       <c r="C58" s="65" t="n"/>
@@ -9747,7 +6032,7 @@
     </row>
     <row r="59">
       <c r="A59" s="65" t="n"/>
-      <c r="B59" s="126" t="n">
+      <c r="B59" s="124" t="n">
         <v>45970</v>
       </c>
       <c r="C59" s="65" t="n"/>
@@ -9758,12 +6043,12 @@
       <c r="H59" s="65" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="126" t="n">
+      <c r="B60" s="124" t="n">
         <v>45977</v>
       </c>
     </row>
     <row r="61">
-      <c r="B61" s="126" t="n">
+      <c r="B61" s="124" t="n">
         <v>45984</v>
       </c>
     </row>
@@ -9773,22 +6058,22 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" s="0" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="B64" s="0" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="B65" s="0" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="B66" s="0" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="B67" s="0" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="B68" s="0" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="B69" s="30" t="inlineStr"/>
@@ -9810,7 +6095,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9847,6 +6132,7 @@
       </c>
       <c r="F1" s="121" t="n"/>
       <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="46" t="inlineStr">
@@ -9868,6 +6154,7 @@
       </c>
       <c r="F2" s="121" t="n"/>
       <c r="G2" s="110" t="n"/>
+      <c r="H2" s="110" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="110" t="n"/>
@@ -9877,6 +6164,7 @@
       <c r="E3" s="65" t="n"/>
       <c r="F3" s="65" t="n"/>
       <c r="G3" s="65" t="n"/>
+      <c r="H3" s="65" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="110" t="n"/>
@@ -9886,6 +6174,7 @@
       <c r="E4" s="65" t="n"/>
       <c r="F4" s="65" t="n"/>
       <c r="G4" s="65" t="n"/>
+      <c r="H4" s="65" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="65" t="n"/>
@@ -9899,19 +6188,19 @@
           <t>Data de Nasc.</t>
         </is>
       </c>
-      <c r="D5" s="123" t="n">
+      <c r="D5" s="122" t="n">
         <v>45963</v>
       </c>
-      <c r="E5" s="124" t="n">
+      <c r="E5" s="123" t="n">
         <v>45970</v>
       </c>
-      <c r="F5" s="124" t="n">
+      <c r="F5" s="123" t="n">
         <v>45977</v>
       </c>
-      <c r="G5" s="124" t="n">
+      <c r="G5" s="123" t="n">
         <v>45984</v>
       </c>
-      <c r="H5" s="124" t="n">
+      <c r="H5" s="123" t="n">
         <v>45991</v>
       </c>
     </row>
@@ -10567,7 +6856,7 @@
     </row>
     <row r="46">
       <c r="A46" s="110" t="n"/>
-      <c r="B46" s="0" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" s="110" t="n"/>
       <c r="D46" s="110" t="n"/>
       <c r="E46" s="110" t="n"/>
@@ -10591,7 +6880,7 @@
     </row>
     <row r="48">
       <c r="A48" s="110" t="n"/>
-      <c r="B48" s="126" t="n">
+      <c r="B48" s="124" t="n">
         <v>45963</v>
       </c>
       <c r="C48" s="110" t="n"/>
@@ -10603,7 +6892,7 @@
     </row>
     <row r="49">
       <c r="A49" s="110" t="n"/>
-      <c r="B49" s="126" t="n">
+      <c r="B49" s="124" t="n">
         <v>45970</v>
       </c>
       <c r="C49" s="110" t="n"/>
@@ -10615,7 +6904,7 @@
     </row>
     <row r="50">
       <c r="A50" s="110" t="n"/>
-      <c r="B50" s="126" t="n">
+      <c r="B50" s="124" t="n">
         <v>45977</v>
       </c>
       <c r="C50" s="110" t="n"/>
@@ -10627,7 +6916,7 @@
     </row>
     <row r="51">
       <c r="A51" s="110" t="n"/>
-      <c r="B51" s="126" t="n">
+      <c r="B51" s="124" t="n">
         <v>45984</v>
       </c>
       <c r="C51" s="110" t="n"/>
@@ -10665,7 +6954,7 @@
     </row>
     <row r="54">
       <c r="A54" s="110" t="n"/>
-      <c r="B54" s="126" t="n">
+      <c r="B54" s="124" t="n">
         <v>45963</v>
       </c>
       <c r="C54" s="110" t="n"/>
@@ -10676,17 +6965,17 @@
       <c r="H54" s="110" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="126" t="n">
+      <c r="B55" s="124" t="n">
         <v>45970</v>
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="126" t="n">
+      <c r="B56" s="124" t="n">
         <v>45977</v>
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="126" t="n">
+      <c r="B57" s="124" t="n">
         <v>45984</v>
       </c>
     </row>
@@ -10696,7 +6985,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" s="0" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="B60" s="30" t="inlineStr"/>
@@ -10716,7 +7005,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10755,6 +7044,7 @@
       </c>
       <c r="G1" s="121" t="n"/>
       <c r="H1" s="6" t="n"/>
+      <c r="I1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="65" t="n"/>
@@ -10769,6 +7059,7 @@
       </c>
       <c r="G2" s="121" t="n"/>
       <c r="H2" s="110" t="n"/>
+      <c r="I2" s="110" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="65" t="n"/>
@@ -10779,6 +7070,7 @@
       <c r="F3" s="65" t="n"/>
       <c r="G3" s="65" t="n"/>
       <c r="H3" s="65" t="n"/>
+      <c r="I3" s="65" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="65" t="n"/>
@@ -10789,6 +7081,7 @@
       <c r="F4" s="65" t="n"/>
       <c r="G4" s="65" t="n"/>
       <c r="H4" s="65" t="n"/>
+      <c r="I4" s="65" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="65" t="n"/>
@@ -10807,19 +7100,19 @@
           <t>Cod.</t>
         </is>
       </c>
-      <c r="E5" s="123" t="n">
+      <c r="E5" s="122" t="n">
         <v>45963</v>
       </c>
-      <c r="F5" s="124" t="n">
+      <c r="F5" s="123" t="n">
         <v>45970</v>
       </c>
-      <c r="G5" s="124" t="n">
+      <c r="G5" s="123" t="n">
         <v>45977</v>
       </c>
-      <c r="H5" s="124" t="n">
+      <c r="H5" s="123" t="n">
         <v>45984</v>
       </c>
-      <c r="I5" s="124" t="n">
+      <c r="I5" s="123" t="n">
         <v>45991</v>
       </c>
     </row>
@@ -11534,7 +7827,7 @@
       <c r="A39" s="65" t="n"/>
       <c r="B39" s="85" t="inlineStr">
         <is>
-          <t>Gláucia Alves de Sales Almeida - 24/11</t>
+          <t>Marcos de Melo - 15/11</t>
         </is>
       </c>
     </row>
@@ -11542,7 +7835,7 @@
       <c r="A40" s="65" t="n"/>
       <c r="B40" s="50" t="inlineStr">
         <is>
-          <t>Marcos de Melo - 15/11</t>
+          <t>Thais Chaves Oliveira Costa Freitas - 16/11</t>
         </is>
       </c>
       <c r="D40" s="65" t="n"/>
@@ -11556,7 +7849,7 @@
       <c r="A41" s="65" t="n"/>
       <c r="B41" s="85" t="inlineStr">
         <is>
-          <t>Thais Chaves Oliveira Costa Freitas - 16/11</t>
+          <t>Gláucia Alves de Sales Almeida - 24/11</t>
         </is>
       </c>
       <c r="D41" s="65" t="n"/>
